--- a/qspautomation/data/TestData.xlsx
+++ b/qspautomation/data/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>pune</t>
   </si>
@@ -80,12 +80,16 @@
   </si>
   <si>
     <t>chiwda</t>
+  </si>
+  <si>
+    <t>automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
@@ -430,8 +434,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -471,6 +475,9 @@
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
